--- a/10/1/Parámetros estructurales 2019 a 2021 - Mensual.xlsx
+++ b/10/1/Parámetros estructurales 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Serie</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,6 +552,23 @@
         <v>2.8</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
